--- a/biology/Botanique/Cladrastis/Cladrastis.xlsx
+++ b/biology/Botanique/Cladrastis/Cladrastis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cladrastis (ou Virgilier) (les « bois jaunes ») est un genre de sept espèces de plantes à fleurs de la famille des fabacées dont six sont originaires d’Asie orientale, et une du sud est de l’Amérique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des arbres à feuilles caduques de petite à moyennes dimensions, généralement 10 à 20 m de hauteur, pouvant exceptionnellement atteindre 27 m. Les feuilles sont composées et pennées avec 5 à 17 folioles disposées en ordre alterné. Les fleurs sont odorantes, blanches ou roses, racémeuses ou groupées en panicules de 15 à 40 cm de long. Le fruit est une gousse de 3 à 8 cm de long, qui contient une à six graines.
 Le genre Cladrastis est voisin du genre Maackia, dont il diffère par les bourgeons dissimulés à la base des feuilles et par leurs folioles qui sont alternes et non en paires opposées. Le nom générique vient du grec κλάδος (klados) , branche, et θραύστος, (thraustos), fragile, en référence au fait que les brindilles sont cassantes.
@@ -543,7 +557,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cladrastis kentukea (Dum. Cours.) Rudd (syn. C. lutea), le virgilier. Sud-est de l’Amérique du Nord.
 Cladrastis platycarpa (Maxim.) Makino. Japon.
